--- a/3. Resultados/03. resultados DIC 02 al DIC 15/Paola Pinzon.xlsx
+++ b/3. Resultados/03. resultados DIC 02 al DIC 15/Paola Pinzon.xlsx
@@ -1,326 +1,334 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\3. Resultados\03. resultados DIC 02 al DIC 15\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF567AB-8C9F-4627-895A-586B4DF97338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
-  <si>
-    <t xml:space="preserve">Identificador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha de Pago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servicio/Producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prestador/Vendedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part_profesional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/12/2024 17:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adriana junca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decoracion Uña Acrilica (desde)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paola Pinzon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Manicure Semipermanente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/12/2024 13:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monica Rodriguez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depilación cera empeine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Manicure Tradicional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Pedicure Gel Evolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2024 17:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angela Mariño Joha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2024 15:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nichola Lumsden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depilacion Pierna completa cera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depilacion bikini completo brasilero cera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2024 12:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliana Perlaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Pedicure Tradicional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2024 11:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Carolina Garcia Rueda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Pedicure Semipermanente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retiro de semipermanente de otro lugar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/12/2024 18:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalina Puello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Manicure Gel Evolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/12/2024 13:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eva aranguren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depilacion Bigote cera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/12/2024 17:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juliana Torres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restauración Uña Acrilica o Press On</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/12/2024 17:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stefani Agudelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retiro Dipping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efectos En Diez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Manicure Dipping Esmaltado Semipermante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/12/2024 08:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viviana Peraza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/12/2024 18:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara Rincón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/12/2024 15:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/12/2024 14:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariana Jimenez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depilacion nariz cera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depilacion Media pierna cera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depilacion axila cera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bikini parcial Cera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/12/2024 17:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martina Francys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montaje+Manicure + Acrilico esculpido + esmaltado semipermanente Largo 1.2.3 ( Montura)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/12/2024 11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anya Francis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manicure + Base Rubber + Esmaltado Semipermanente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/12/2024 08:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Garcia gutierrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/12/2024 07:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Fernanda Botero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambio de Esmalte Gel Evolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/12/2024 18:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ximena Peñuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/12/2024 17:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriela Ricaute francys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/12/2024 17:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partícipes FOREVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manicure  Tradicional Express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/12/2024 17:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajuste de Producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manicure Express Gel evolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/12/2024 14:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedicure Tradicional Express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/12/2024 19:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Maria Casas Robayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depilacion Cejas Cera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/12/2024 17:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paola Joleane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/12/2024 15:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juanita Raja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/12/2024 18:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Victoria Vega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/12/2024 17:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/12/2024 17:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luz Stella Gil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/12/2024 17:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/12/2024 13:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alvaro Serrano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/12/2024 15:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">producto pestañas compañeros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/12/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descuento - Producto - Proceso en el salón cuota 1 de 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/12/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descuento - Anticipo - Nequi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/12/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fondo - Ahorro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fondo - Préstamo - Cuota 2 de 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fondo - Intereses - Cuota 2 de 3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="103">
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>Fecha de Pago</t>
+  </si>
+  <si>
+    <t>Nombre cliente</t>
+  </si>
+  <si>
+    <t>Servicio/Producto</t>
+  </si>
+  <si>
+    <t>Prestador/Vendedor</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Part_profesional</t>
+  </si>
+  <si>
+    <t>15/12/2024 17:49</t>
+  </si>
+  <si>
+    <t>adriana junca</t>
+  </si>
+  <si>
+    <t>Decoracion Uña Acrilica (desde)</t>
+  </si>
+  <si>
+    <t>Paola Pinzon</t>
+  </si>
+  <si>
+    <t>Spa Manicure Semipermanente</t>
+  </si>
+  <si>
+    <t>15/12/2024 13:45</t>
+  </si>
+  <si>
+    <t>Monica Rodriguez</t>
+  </si>
+  <si>
+    <t>Depilación cera empeine</t>
+  </si>
+  <si>
+    <t>Spa Manicure Tradicional</t>
+  </si>
+  <si>
+    <t>Spa Pedicure Gel Evolution</t>
+  </si>
+  <si>
+    <t>14/12/2024 17:41</t>
+  </si>
+  <si>
+    <t>Angela Mariño Joha</t>
+  </si>
+  <si>
+    <t>14/12/2024 15:13</t>
+  </si>
+  <si>
+    <t>Nichola Lumsden</t>
+  </si>
+  <si>
+    <t>Depilacion Pierna completa cera</t>
+  </si>
+  <si>
+    <t>Depilacion bikini completo brasilero cera</t>
+  </si>
+  <si>
+    <t>14/12/2024 12:54</t>
+  </si>
+  <si>
+    <t>Liliana Perlaza</t>
+  </si>
+  <si>
+    <t>Spa Pedicure Tradicional</t>
+  </si>
+  <si>
+    <t>14/12/2024 11:03</t>
+  </si>
+  <si>
+    <t>Maria Carolina Garcia Rueda</t>
+  </si>
+  <si>
+    <t>Spa Pedicure Semipermanente</t>
+  </si>
+  <si>
+    <t>Retiro de semipermanente de otro lugar</t>
+  </si>
+  <si>
+    <t>13/12/2024 18:45</t>
+  </si>
+  <si>
+    <t>Catalina Puello</t>
+  </si>
+  <si>
+    <t>Spa Manicure Gel Evolution</t>
+  </si>
+  <si>
+    <t>13/12/2024 13:24</t>
+  </si>
+  <si>
+    <t>eva aranguren</t>
+  </si>
+  <si>
+    <t>Depilacion Bigote cera</t>
+  </si>
+  <si>
+    <t>12/12/2024 17:37</t>
+  </si>
+  <si>
+    <t>Juliana Torres</t>
+  </si>
+  <si>
+    <t>Restauración Uña Acrilica o Press On</t>
+  </si>
+  <si>
+    <t>11/12/2024 17:58</t>
+  </si>
+  <si>
+    <t>Stefani Agudelo</t>
+  </si>
+  <si>
+    <t>Retiro Dipping</t>
+  </si>
+  <si>
+    <t>Efectos En Diez</t>
+  </si>
+  <si>
+    <t>Spa Manicure Dipping Esmaltado Semipermante</t>
+  </si>
+  <si>
+    <t>11/12/2024 08:23</t>
+  </si>
+  <si>
+    <t>Viviana Peraza</t>
+  </si>
+  <si>
+    <t>10/12/2024 18:24</t>
+  </si>
+  <si>
+    <t>Sara Rincón</t>
+  </si>
+  <si>
+    <t>10/12/2024 15:22</t>
+  </si>
+  <si>
+    <t>10/12/2024 14:14</t>
+  </si>
+  <si>
+    <t>Mariana Jimenez</t>
+  </si>
+  <si>
+    <t>Depilacion nariz cera</t>
+  </si>
+  <si>
+    <t>Depilacion Media pierna cera</t>
+  </si>
+  <si>
+    <t>Depilacion axila cera</t>
+  </si>
+  <si>
+    <t>Bikini parcial Cera</t>
+  </si>
+  <si>
+    <t>09/12/2024 17:43</t>
+  </si>
+  <si>
+    <t>Martina Francys</t>
+  </si>
+  <si>
+    <t>Montaje+Manicure + Acrilico esculpido + esmaltado semipermanente Largo 1.2.3 ( Montura)</t>
+  </si>
+  <si>
+    <t>07/12/2024 11:00</t>
+  </si>
+  <si>
+    <t>Anya Francis</t>
+  </si>
+  <si>
+    <t>Manicure + Base Rubber + Esmaltado Semipermanente</t>
+  </si>
+  <si>
+    <t>07/12/2024 08:52</t>
+  </si>
+  <si>
+    <t>Ana Garcia gutierrez</t>
+  </si>
+  <si>
+    <t>07/12/2024 07:34</t>
+  </si>
+  <si>
+    <t>Claudia Fernanda Botero</t>
+  </si>
+  <si>
+    <t>Cambio de Esmalte Gel Evolution</t>
+  </si>
+  <si>
+    <t>06/12/2024 18:13</t>
+  </si>
+  <si>
+    <t>Ximena Peñuela</t>
+  </si>
+  <si>
+    <t>06/12/2024 17:45</t>
+  </si>
+  <si>
+    <t>Gabriela Ricaute francys</t>
+  </si>
+  <si>
+    <t>05/12/2024 17:52</t>
+  </si>
+  <si>
+    <t>Partícipes FOREVER</t>
+  </si>
+  <si>
+    <t>Manicure  Tradicional Express</t>
+  </si>
+  <si>
+    <t>05/12/2024 17:41</t>
+  </si>
+  <si>
+    <t>Ajuste de Producto</t>
+  </si>
+  <si>
+    <t>Manicure Express Gel evolution</t>
+  </si>
+  <si>
+    <t>05/12/2024 14:52</t>
+  </si>
+  <si>
+    <t>Pedicure Tradicional Express</t>
+  </si>
+  <si>
+    <t>04/12/2024 19:28</t>
+  </si>
+  <si>
+    <t>Ana Maria Casas Robayo</t>
+  </si>
+  <si>
+    <t>Depilacion Cejas Cera</t>
+  </si>
+  <si>
+    <t>04/12/2024 17:15</t>
+  </si>
+  <si>
+    <t>Paola Joleane</t>
+  </si>
+  <si>
+    <t>04/12/2024 15:40</t>
+  </si>
+  <si>
+    <t>Juanita Raja</t>
+  </si>
+  <si>
+    <t>03/12/2024 18:59</t>
+  </si>
+  <si>
+    <t>Ana Victoria Vega</t>
+  </si>
+  <si>
+    <t>03/12/2024 17:40</t>
+  </si>
+  <si>
+    <t>02/12/2024 17:58</t>
+  </si>
+  <si>
+    <t>Luz Stella Gil</t>
+  </si>
+  <si>
+    <t>02/12/2024 17:12</t>
+  </si>
+  <si>
+    <t>02/12/2024 13:34</t>
+  </si>
+  <si>
+    <t>Alvaro Serrano</t>
+  </si>
+  <si>
+    <t>06/12/2024 15:22</t>
+  </si>
+  <si>
+    <t>producto pestañas compañeros</t>
+  </si>
+  <si>
+    <t>03/12/2024</t>
+  </si>
+  <si>
+    <t>Descuento - Producto - Proceso en el salón cuota 1 de 2</t>
+  </si>
+  <si>
+    <t>12/12/2024</t>
+  </si>
+  <si>
+    <t>Descuento - Anticipo - Nequi</t>
+  </si>
+  <si>
+    <t>15/12/2024</t>
+  </si>
+  <si>
+    <t>Fondo - Ahorro</t>
+  </si>
+  <si>
+    <t>Fondo - Préstamo - Cuota 2 de 3</t>
+  </si>
+  <si>
+    <t>Fondo - Intereses - Cuota 2 de 3</t>
   </si>
 </sst>
 </file>
@@ -328,9 +336,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot; #,##0;[Red]&quot;$&quot; -#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -339,15 +347,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -380,14 +390,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -669,23 +688,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="16.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="27.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="87.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="18.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="6.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="16.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="87.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,8 +727,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>35992490</v>
       </c>
       <c r="B2" t="s">
@@ -724,15 +743,15 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>12800</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>5760</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>35992490</v>
       </c>
       <c r="B3" t="s">
@@ -747,15 +766,15 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>60000</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2">
         <v>27000</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>35988066</v>
       </c>
       <c r="B4" t="s">
@@ -770,15 +789,15 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>20000</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2">
         <v>9768</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>35988066</v>
       </c>
       <c r="B5" t="s">
@@ -793,15 +812,15 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>28000</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>12600</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>35988066</v>
       </c>
       <c r="B6" t="s">
@@ -816,15 +835,15 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>38000</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>17100</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>35976226</v>
       </c>
       <c r="B7" t="s">
@@ -839,15 +858,15 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>28000</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>12600</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>35968772</v>
       </c>
       <c r="B8" t="s">
@@ -862,15 +881,15 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>46000</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>22466.4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="G8" s="2">
+        <v>22466.400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>35968772</v>
       </c>
       <c r="B9" t="s">
@@ -885,15 +904,15 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>52000</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>25396.8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="G9" s="2">
+        <v>25396.799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>35956259</v>
       </c>
       <c r="B10" t="s">
@@ -908,15 +927,15 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>34000</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2">
         <v>15300</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>35946799</v>
       </c>
       <c r="B11" t="s">
@@ -931,15 +950,15 @@
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>67000</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>30150</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>35946799</v>
       </c>
       <c r="B12" t="s">
@@ -954,15 +973,15 @@
       <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>15000</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2">
         <v>6750</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>35946799</v>
       </c>
       <c r="B13" t="s">
@@ -977,15 +996,15 @@
       <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>60000</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2">
         <v>27000</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>35929494</v>
       </c>
       <c r="B14" t="s">
@@ -1000,15 +1019,15 @@
       <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>32000</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>35908072</v>
       </c>
       <c r="B15" t="s">
@@ -1023,15 +1042,15 @@
       <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>32000</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>35908072</v>
       </c>
       <c r="B16" t="s">
@@ -1046,15 +1065,15 @@
       <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>15000</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="2">
         <v>7326</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>35872027</v>
       </c>
       <c r="B17" t="s">
@@ -1069,15 +1088,15 @@
       <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>15000</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="2">
         <v>6750</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>35872027</v>
       </c>
       <c r="B18" t="s">
@@ -1092,15 +1111,15 @@
       <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>15000</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2">
         <v>6750</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>35872027</v>
       </c>
       <c r="B19" t="s">
@@ -1115,15 +1134,15 @@
       <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>32000</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>35872027</v>
       </c>
       <c r="B20" t="s">
@@ -1138,15 +1157,15 @@
       <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>38000</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="2">
         <v>17100</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>35825106</v>
       </c>
       <c r="B21" t="s">
@@ -1161,15 +1180,15 @@
       <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>32000</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>35825106</v>
       </c>
       <c r="B22" t="s">
@@ -1184,15 +1203,15 @@
       <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>40000</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2">
         <v>18000</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>35825106</v>
       </c>
       <c r="B23" t="s">
@@ -1207,15 +1226,15 @@
       <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>100000</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2">
         <v>45000</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>35836570</v>
       </c>
       <c r="B24" t="s">
@@ -1230,15 +1249,15 @@
       <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>34000</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="2">
         <v>15300</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>35836570</v>
       </c>
       <c r="B25" t="s">
@@ -1253,15 +1272,15 @@
       <c r="E25" t="s">
         <v>10</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>32000</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>35780749</v>
       </c>
       <c r="B26" t="s">
@@ -1276,15 +1295,15 @@
       <c r="E26" t="s">
         <v>10</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>26000</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="2">
         <v>11700</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>35780749</v>
       </c>
       <c r="B27" t="s">
@@ -1299,15 +1318,15 @@
       <c r="E27" t="s">
         <v>10</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>11200</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="2">
         <v>5040</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>35780749</v>
       </c>
       <c r="B28" t="s">
@@ -1322,15 +1341,15 @@
       <c r="E28" t="s">
         <v>10</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>60000</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="2">
         <v>27000</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>35767734</v>
       </c>
       <c r="B29" t="s">
@@ -1345,15 +1364,15 @@
       <c r="E29" t="s">
         <v>10</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>32000</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>35762831</v>
       </c>
       <c r="B30" t="s">
@@ -1368,15 +1387,15 @@
       <c r="E30" t="s">
         <v>10</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>6000</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="2">
         <v>2930.4</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>35762831</v>
       </c>
       <c r="B31" t="s">
@@ -1391,15 +1410,15 @@
       <c r="E31" t="s">
         <v>10</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>29000</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="2">
         <v>14163.6</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>35762831</v>
       </c>
       <c r="B32" t="s">
@@ -1414,15 +1433,15 @@
       <c r="E32" t="s">
         <v>10</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>20000</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="2">
         <v>9768</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>35762831</v>
       </c>
       <c r="B33" t="s">
@@ -1437,15 +1456,15 @@
       <c r="E33" t="s">
         <v>10</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>15000</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="2">
         <v>7326</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>35762831</v>
       </c>
       <c r="B34" t="s">
@@ -1460,15 +1479,15 @@
       <c r="E34" t="s">
         <v>10</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>35000</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="2">
         <v>17094</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>35733985</v>
       </c>
       <c r="B35" t="s">
@@ -1483,15 +1502,15 @@
       <c r="E35" t="s">
         <v>10</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>13000</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="2">
         <v>5850</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35733985</v>
       </c>
       <c r="B36" t="s">
@@ -1506,15 +1525,15 @@
       <c r="E36" t="s">
         <v>10</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>199000</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="2">
         <v>89550</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>35658748</v>
       </c>
       <c r="B37" t="s">
@@ -1529,15 +1548,15 @@
       <c r="E37" t="s">
         <v>10</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>75000</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="2">
         <v>33750</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>35658748</v>
       </c>
       <c r="B38" t="s">
@@ -1552,15 +1571,15 @@
       <c r="E38" t="s">
         <v>10</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>35651032</v>
       </c>
       <c r="B39" t="s">
@@ -1575,15 +1594,15 @@
       <c r="E39" t="s">
         <v>10</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>32000</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>35652036</v>
       </c>
       <c r="B40" t="s">
@@ -1598,15 +1617,15 @@
       <c r="E40" t="s">
         <v>10</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>18000</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="2">
         <v>8100</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>35642190</v>
       </c>
       <c r="B41" t="s">
@@ -1621,15 +1640,15 @@
       <c r="E41" t="s">
         <v>10</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>60000</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="2">
         <v>27000</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>35637360</v>
       </c>
       <c r="B42" t="s">
@@ -1644,15 +1663,15 @@
       <c r="E42" t="s">
         <v>10</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>35637360</v>
       </c>
       <c r="B43" t="s">
@@ -1667,15 +1686,15 @@
       <c r="E43" t="s">
         <v>10</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>67000</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="G43" s="2">
         <v>30150</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>35583063</v>
       </c>
       <c r="B44" t="s">
@@ -1690,15 +1709,15 @@
       <c r="E44" t="s">
         <v>10</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>20000</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="G44" s="2">
         <v>9000</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="4" t="n">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>35582316</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1713,15 +1732,15 @@
       <c r="E45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="4" t="n">
+      <c r="F45" s="4">
         <v>24000</v>
       </c>
-      <c r="G45" s="3" t="n">
+      <c r="G45" s="3">
         <v>-6240</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="4" t="n">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>35568397</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -1736,15 +1755,15 @@
       <c r="E46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="4" t="n">
+      <c r="F46" s="4">
         <v>28000</v>
       </c>
-      <c r="G46" s="3" t="n">
+      <c r="G46" s="3">
         <v>-7280</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>35542344</v>
       </c>
       <c r="B47" t="s">
@@ -1759,15 +1778,15 @@
       <c r="E47" t="s">
         <v>10</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>26000</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G47" s="2">
         <v>11700</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>35542344</v>
       </c>
       <c r="B48" t="s">
@@ -1782,15 +1801,15 @@
       <c r="E48" t="s">
         <v>10</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>38000</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="2">
         <v>17100</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>35542344</v>
       </c>
       <c r="B49" t="s">
@@ -1805,15 +1824,15 @@
       <c r="E49" t="s">
         <v>10</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>18000</v>
       </c>
-      <c r="G49" s="2" t="n">
-        <v>8791.2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="G49" s="2">
+        <v>8791.2000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>35542344</v>
       </c>
       <c r="B50" t="s">
@@ -1828,15 +1847,15 @@
       <c r="E50" t="s">
         <v>10</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>60000</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="2">
         <v>27000</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>35532331</v>
       </c>
       <c r="B51" t="s">
@@ -1851,15 +1870,15 @@
       <c r="E51" t="s">
         <v>10</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>15000</v>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="G51" s="2">
         <v>6750</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>35532331</v>
       </c>
       <c r="B52" t="s">
@@ -1874,15 +1893,15 @@
       <c r="E52" t="s">
         <v>10</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>60000</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G52" s="2">
         <v>27000</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>35525015</v>
       </c>
       <c r="B53" t="s">
@@ -1897,15 +1916,15 @@
       <c r="E53" t="s">
         <v>10</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>38000</v>
       </c>
-      <c r="G53" s="2" t="n">
+      <c r="G53" s="2">
         <v>17100</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>35525015</v>
       </c>
       <c r="B54" t="s">
@@ -1920,15 +1939,15 @@
       <c r="E54" t="s">
         <v>10</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>18000</v>
       </c>
-      <c r="G54" s="2" t="n">
-        <v>8791.2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
+      <c r="G54" s="2">
+        <v>8791.2000000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>35525015</v>
       </c>
       <c r="B55" t="s">
@@ -1943,15 +1962,15 @@
       <c r="E55" t="s">
         <v>10</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>75000</v>
       </c>
-      <c r="G55" s="2" t="n">
+      <c r="G55" s="2">
         <v>33750</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>35494005</v>
       </c>
       <c r="B56" t="s">
@@ -1966,15 +1985,15 @@
       <c r="E56" t="s">
         <v>10</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>32000</v>
       </c>
-      <c r="G56" s="2" t="n">
+      <c r="G56" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>35494005</v>
       </c>
       <c r="B57" t="s">
@@ -1989,15 +2008,15 @@
       <c r="E57" t="s">
         <v>10</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>15000</v>
       </c>
-      <c r="G57" s="2" t="n">
+      <c r="G57" s="2">
         <v>7326</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>35494005</v>
       </c>
       <c r="B58" t="s">
@@ -2012,15 +2031,15 @@
       <c r="E58" t="s">
         <v>10</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>18000</v>
       </c>
-      <c r="G58" s="2" t="n">
-        <v>8791.2</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="4" t="n">
+      <c r="G58" s="2">
+        <v>8791.2000000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>35582184</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -2035,15 +2054,15 @@
       <c r="E59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="4" t="n">
+      <c r="F59" s="4">
         <v>199000</v>
       </c>
-      <c r="G59" s="3" t="n">
+      <c r="G59" s="3">
         <v>-51740</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>35445806</v>
       </c>
       <c r="B60" t="s">
@@ -2058,15 +2077,15 @@
       <c r="E60" t="s">
         <v>10</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>32000</v>
       </c>
-      <c r="G60" s="2" t="n">
+      <c r="G60" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="4" t="n">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>35442726</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -2081,15 +2100,15 @@
       <c r="E61" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="4" t="n">
+      <c r="F61" s="4">
         <v>28000</v>
       </c>
-      <c r="G61" s="3" t="n">
+      <c r="G61" s="3">
         <v>-7280</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>35428108</v>
       </c>
       <c r="B62" t="s">
@@ -2104,15 +2123,15 @@
       <c r="E62" t="s">
         <v>10</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>38000</v>
       </c>
-      <c r="G62" s="2" t="n">
+      <c r="G62" s="2">
         <v>17100</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>35428108</v>
       </c>
       <c r="B63" t="s">
@@ -2127,15 +2146,15 @@
       <c r="E63" t="s">
         <v>10</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>32000</v>
       </c>
-      <c r="G63" s="2" t="n">
+      <c r="G63" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="4" t="n">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>35623157</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -2150,14 +2169,14 @@
       <c r="E64" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="4" t="n">
+      <c r="F64" s="4">
         <v>30000</v>
       </c>
-      <c r="G64" s="3" t="n">
+      <c r="G64" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>95</v>
@@ -2169,14 +2188,14 @@
       <c r="E65" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="4" t="n">
+      <c r="F65" s="4">
         <v>0</v>
       </c>
-      <c r="G65" s="3" t="n">
+      <c r="G65" s="3">
         <v>-31646</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>97</v>
@@ -2188,14 +2207,14 @@
       <c r="E66" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="4" t="n">
+      <c r="F66" s="4">
         <v>0</v>
       </c>
-      <c r="G66" s="3" t="n">
+      <c r="G66" s="3">
         <v>-100000</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>99</v>
@@ -2207,14 +2226,14 @@
       <c r="E67" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="4" t="n">
+      <c r="F67" s="4">
         <v>0</v>
       </c>
-      <c r="G67" s="3" t="n">
+      <c r="G67" s="3">
         <v>-50000</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>99</v>
@@ -2226,14 +2245,14 @@
       <c r="E68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="4" t="n">
+      <c r="F68" s="4">
         <v>0</v>
       </c>
-      <c r="G68" s="3" t="n">
+      <c r="G68" s="3">
         <v>-50000</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>99</v>
@@ -2245,15 +2264,15 @@
       <c r="E69" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="4" t="n">
+      <c r="F69" s="4">
         <v>0</v>
       </c>
-      <c r="G69" s="3" t="n">
+      <c r="G69" s="3">
         <v>-7500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/3. Resultados/03. resultados DIC 02 al DIC 15/Paola Pinzon.xlsx
+++ b/3. Resultados/03. resultados DIC 02 al DIC 15/Paola Pinzon.xlsx
@@ -1,334 +1,326 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\3. Resultados\03. resultados DIC 02 al DIC 15\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF567AB-8C9F-4627-895A-586B4DF97338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="103">
-  <si>
-    <t>Identificador</t>
-  </si>
-  <si>
-    <t>Fecha de Pago</t>
-  </si>
-  <si>
-    <t>Nombre cliente</t>
-  </si>
-  <si>
-    <t>Servicio/Producto</t>
-  </si>
-  <si>
-    <t>Prestador/Vendedor</t>
-  </si>
-  <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>Part_profesional</t>
-  </si>
-  <si>
-    <t>15/12/2024 17:49</t>
-  </si>
-  <si>
-    <t>adriana junca</t>
-  </si>
-  <si>
-    <t>Decoracion Uña Acrilica (desde)</t>
-  </si>
-  <si>
-    <t>Paola Pinzon</t>
-  </si>
-  <si>
-    <t>Spa Manicure Semipermanente</t>
-  </si>
-  <si>
-    <t>15/12/2024 13:45</t>
-  </si>
-  <si>
-    <t>Monica Rodriguez</t>
-  </si>
-  <si>
-    <t>Depilación cera empeine</t>
-  </si>
-  <si>
-    <t>Spa Manicure Tradicional</t>
-  </si>
-  <si>
-    <t>Spa Pedicure Gel Evolution</t>
-  </si>
-  <si>
-    <t>14/12/2024 17:41</t>
-  </si>
-  <si>
-    <t>Angela Mariño Joha</t>
-  </si>
-  <si>
-    <t>14/12/2024 15:13</t>
-  </si>
-  <si>
-    <t>Nichola Lumsden</t>
-  </si>
-  <si>
-    <t>Depilacion Pierna completa cera</t>
-  </si>
-  <si>
-    <t>Depilacion bikini completo brasilero cera</t>
-  </si>
-  <si>
-    <t>14/12/2024 12:54</t>
-  </si>
-  <si>
-    <t>Liliana Perlaza</t>
-  </si>
-  <si>
-    <t>Spa Pedicure Tradicional</t>
-  </si>
-  <si>
-    <t>14/12/2024 11:03</t>
-  </si>
-  <si>
-    <t>Maria Carolina Garcia Rueda</t>
-  </si>
-  <si>
-    <t>Spa Pedicure Semipermanente</t>
-  </si>
-  <si>
-    <t>Retiro de semipermanente de otro lugar</t>
-  </si>
-  <si>
-    <t>13/12/2024 18:45</t>
-  </si>
-  <si>
-    <t>Catalina Puello</t>
-  </si>
-  <si>
-    <t>Spa Manicure Gel Evolution</t>
-  </si>
-  <si>
-    <t>13/12/2024 13:24</t>
-  </si>
-  <si>
-    <t>eva aranguren</t>
-  </si>
-  <si>
-    <t>Depilacion Bigote cera</t>
-  </si>
-  <si>
-    <t>12/12/2024 17:37</t>
-  </si>
-  <si>
-    <t>Juliana Torres</t>
-  </si>
-  <si>
-    <t>Restauración Uña Acrilica o Press On</t>
-  </si>
-  <si>
-    <t>11/12/2024 17:58</t>
-  </si>
-  <si>
-    <t>Stefani Agudelo</t>
-  </si>
-  <si>
-    <t>Retiro Dipping</t>
-  </si>
-  <si>
-    <t>Efectos En Diez</t>
-  </si>
-  <si>
-    <t>Spa Manicure Dipping Esmaltado Semipermante</t>
-  </si>
-  <si>
-    <t>11/12/2024 08:23</t>
-  </si>
-  <si>
-    <t>Viviana Peraza</t>
-  </si>
-  <si>
-    <t>10/12/2024 18:24</t>
-  </si>
-  <si>
-    <t>Sara Rincón</t>
-  </si>
-  <si>
-    <t>10/12/2024 15:22</t>
-  </si>
-  <si>
-    <t>10/12/2024 14:14</t>
-  </si>
-  <si>
-    <t>Mariana Jimenez</t>
-  </si>
-  <si>
-    <t>Depilacion nariz cera</t>
-  </si>
-  <si>
-    <t>Depilacion Media pierna cera</t>
-  </si>
-  <si>
-    <t>Depilacion axila cera</t>
-  </si>
-  <si>
-    <t>Bikini parcial Cera</t>
-  </si>
-  <si>
-    <t>09/12/2024 17:43</t>
-  </si>
-  <si>
-    <t>Martina Francys</t>
-  </si>
-  <si>
-    <t>Montaje+Manicure + Acrilico esculpido + esmaltado semipermanente Largo 1.2.3 ( Montura)</t>
-  </si>
-  <si>
-    <t>07/12/2024 11:00</t>
-  </si>
-  <si>
-    <t>Anya Francis</t>
-  </si>
-  <si>
-    <t>Manicure + Base Rubber + Esmaltado Semipermanente</t>
-  </si>
-  <si>
-    <t>07/12/2024 08:52</t>
-  </si>
-  <si>
-    <t>Ana Garcia gutierrez</t>
-  </si>
-  <si>
-    <t>07/12/2024 07:34</t>
-  </si>
-  <si>
-    <t>Claudia Fernanda Botero</t>
-  </si>
-  <si>
-    <t>Cambio de Esmalte Gel Evolution</t>
-  </si>
-  <si>
-    <t>06/12/2024 18:13</t>
-  </si>
-  <si>
-    <t>Ximena Peñuela</t>
-  </si>
-  <si>
-    <t>06/12/2024 17:45</t>
-  </si>
-  <si>
-    <t>Gabriela Ricaute francys</t>
-  </si>
-  <si>
-    <t>05/12/2024 17:52</t>
-  </si>
-  <si>
-    <t>Partícipes FOREVER</t>
-  </si>
-  <si>
-    <t>Manicure  Tradicional Express</t>
-  </si>
-  <si>
-    <t>05/12/2024 17:41</t>
-  </si>
-  <si>
-    <t>Ajuste de Producto</t>
-  </si>
-  <si>
-    <t>Manicure Express Gel evolution</t>
-  </si>
-  <si>
-    <t>05/12/2024 14:52</t>
-  </si>
-  <si>
-    <t>Pedicure Tradicional Express</t>
-  </si>
-  <si>
-    <t>04/12/2024 19:28</t>
-  </si>
-  <si>
-    <t>Ana Maria Casas Robayo</t>
-  </si>
-  <si>
-    <t>Depilacion Cejas Cera</t>
-  </si>
-  <si>
-    <t>04/12/2024 17:15</t>
-  </si>
-  <si>
-    <t>Paola Joleane</t>
-  </si>
-  <si>
-    <t>04/12/2024 15:40</t>
-  </si>
-  <si>
-    <t>Juanita Raja</t>
-  </si>
-  <si>
-    <t>03/12/2024 18:59</t>
-  </si>
-  <si>
-    <t>Ana Victoria Vega</t>
-  </si>
-  <si>
-    <t>03/12/2024 17:40</t>
-  </si>
-  <si>
-    <t>02/12/2024 17:58</t>
-  </si>
-  <si>
-    <t>Luz Stella Gil</t>
-  </si>
-  <si>
-    <t>02/12/2024 17:12</t>
-  </si>
-  <si>
-    <t>02/12/2024 13:34</t>
-  </si>
-  <si>
-    <t>Alvaro Serrano</t>
-  </si>
-  <si>
-    <t>06/12/2024 15:22</t>
-  </si>
-  <si>
-    <t>producto pestañas compañeros</t>
-  </si>
-  <si>
-    <t>03/12/2024</t>
-  </si>
-  <si>
-    <t>Descuento - Producto - Proceso en el salón cuota 1 de 2</t>
-  </si>
-  <si>
-    <t>12/12/2024</t>
-  </si>
-  <si>
-    <t>Descuento - Anticipo - Nequi</t>
-  </si>
-  <si>
-    <t>15/12/2024</t>
-  </si>
-  <si>
-    <t>Fondo - Ahorro</t>
-  </si>
-  <si>
-    <t>Fondo - Préstamo - Cuota 2 de 3</t>
-  </si>
-  <si>
-    <t>Fondo - Intereses - Cuota 2 de 3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+  <si>
+    <t xml:space="preserve">Identificador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de Pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio/Producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestador/Vendedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part_profesional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/12/2024 17:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adriana junca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decoracion Uña Acrilica (desde)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paola Pinzon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spa Manicure Semipermanente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/12/2024 13:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depilación cera empeine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spa Manicure Tradicional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spa Pedicure Gel Evolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/12/2024 17:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angela Mariño Joha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/12/2024 15:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nichola Lumsden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depilacion Pierna completa cera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depilacion bikini completo brasilero cera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/12/2024 12:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liliana Perlaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spa Pedicure Tradicional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/12/2024 11:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Carolina Garcia Rueda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spa Pedicure Semipermanente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retiro de semipermanente de otro lugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/12/2024 18:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalina Puello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spa Manicure Gel Evolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/12/2024 13:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eva aranguren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depilacion Bigote cera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/12/2024 17:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juliana Torres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restauración Uña Acrilica o Press On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/12/2024 17:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefani Agudelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retiro Dipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efectos En Diez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spa Manicure Dipping Esmaltado Semipermante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/12/2024 08:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viviana Peraza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/12/2024 18:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara Rincón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/12/2024 15:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/12/2024 14:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana Jimenez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depilacion nariz cera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depilacion Media pierna cera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depilacion axila cera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bikini parcial Cera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/12/2024 17:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martina Francys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montaje+Manicure + Acrilico esculpido + esmaltado semipermanente Largo 1.2.3 ( Montura)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/12/2024 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anya Francis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manicure + Base Rubber + Esmaltado Semipermanente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/12/2024 08:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Garcia gutierrez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/12/2024 07:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Fernanda Botero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambio de Esmalte Gel Evolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/12/2024 18:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ximena Peñuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/12/2024 17:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela Ricaute francys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/12/2024 17:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partícipes FOREVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manicure  Tradicional Express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/12/2024 17:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajuste de Producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manicure Express Gel evolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/12/2024 14:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedicure Tradicional Express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/12/2024 19:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Maria Casas Robayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depilacion Cejas Cera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/12/2024 17:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paola Joleane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/12/2024 15:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juanita Raja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/12/2024 18:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Victoria Vega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/12/2024 17:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/12/2024 17:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz Stella Gil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/12/2024 17:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/12/2024 13:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvaro Serrano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/12/2024 15:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">producto pestañas compañeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/12/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descuento - Producto - Proceso en el salón cuota 1 de 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/12/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descuento - Anticipo - Nequi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/12/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fondo - Ahorro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fondo - Préstamo - Cuota 2 de 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fondo - Intereses - Cuota 2 de 3</t>
   </si>
 </sst>
 </file>
@@ -336,9 +328,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot; #,##0;[Red]&quot;$&quot; -#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -347,17 +339,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <b/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -390,23 +380,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -688,23 +669,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="87.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="16.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="27.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="87.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="18.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="6.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="16.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,8 +708,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>35992490</v>
       </c>
       <c r="B2" t="s">
@@ -743,15 +724,15 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>12800</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="2" t="n">
         <v>5760</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>35992490</v>
       </c>
       <c r="B3" t="s">
@@ -766,15 +747,15 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>60000</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="2" t="n">
         <v>27000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>35988066</v>
       </c>
       <c r="B4" t="s">
@@ -789,15 +770,15 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>20000</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="2" t="n">
         <v>9768</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>35988066</v>
       </c>
       <c r="B5" t="s">
@@ -812,15 +793,15 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>28000</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="2" t="n">
         <v>12600</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>35988066</v>
       </c>
       <c r="B6" t="s">
@@ -835,15 +816,15 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>38000</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="2" t="n">
         <v>17100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>35976226</v>
       </c>
       <c r="B7" t="s">
@@ -858,15 +839,15 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>28000</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="2" t="n">
         <v>12600</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>35968772</v>
       </c>
       <c r="B8" t="s">
@@ -881,15 +862,15 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>46000</v>
       </c>
-      <c r="G8" s="2">
-        <v>22466.400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="G8" s="2" t="n">
+        <v>22466.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>35968772</v>
       </c>
       <c r="B9" t="s">
@@ -904,15 +885,15 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>52000</v>
       </c>
-      <c r="G9" s="2">
-        <v>25396.799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="G9" s="2" t="n">
+        <v>25396.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>35956259</v>
       </c>
       <c r="B10" t="s">
@@ -927,15 +908,15 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>34000</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="2" t="n">
         <v>15300</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>35946799</v>
       </c>
       <c r="B11" t="s">
@@ -950,15 +931,15 @@
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>67000</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="2" t="n">
         <v>30150</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>35946799</v>
       </c>
       <c r="B12" t="s">
@@ -973,15 +954,15 @@
       <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>15000</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="2" t="n">
         <v>6750</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>35946799</v>
       </c>
       <c r="B13" t="s">
@@ -996,15 +977,15 @@
       <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>60000</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="2" t="n">
         <v>27000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>35929494</v>
       </c>
       <c r="B14" t="s">
@@ -1019,15 +1000,15 @@
       <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>32000</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="2" t="n">
         <v>14400</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>35908072</v>
       </c>
       <c r="B15" t="s">
@@ -1042,15 +1023,15 @@
       <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>32000</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="2" t="n">
         <v>14400</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>35908072</v>
       </c>
       <c r="B16" t="s">
@@ -1065,15 +1046,15 @@
       <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>15000</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="2" t="n">
         <v>7326</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>35872027</v>
       </c>
       <c r="B17" t="s">
@@ -1088,15 +1069,15 @@
       <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>15000</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="2" t="n">
         <v>6750</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>35872027</v>
       </c>
       <c r="B18" t="s">
@@ -1111,15 +1092,15 @@
       <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>15000</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="2" t="n">
         <v>6750</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>35872027</v>
       </c>
       <c r="B19" t="s">
@@ -1134,15 +1115,15 @@
       <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>32000</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="2" t="n">
         <v>14400</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>35872027</v>
       </c>
       <c r="B20" t="s">
@@ -1157,15 +1138,15 @@
       <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>38000</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="2" t="n">
         <v>17100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>35825106</v>
       </c>
       <c r="B21" t="s">
@@ -1180,15 +1161,15 @@
       <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>32000</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="2" t="n">
         <v>14400</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>35825106</v>
       </c>
       <c r="B22" t="s">
@@ -1203,15 +1184,15 @@
       <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>40000</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="2" t="n">
         <v>18000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>35825106</v>
       </c>
       <c r="B23" t="s">
@@ -1226,15 +1207,15 @@
       <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>100000</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="2" t="n">
         <v>45000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>35836570</v>
       </c>
       <c r="B24" t="s">
@@ -1249,15 +1230,15 @@
       <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>34000</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="2" t="n">
         <v>15300</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>35836570</v>
       </c>
       <c r="B25" t="s">
@@ -1272,15 +1253,15 @@
       <c r="E25" t="s">
         <v>10</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>32000</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="2" t="n">
         <v>14400</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" t="n">
         <v>35780749</v>
       </c>
       <c r="B26" t="s">
@@ -1295,15 +1276,15 @@
       <c r="E26" t="s">
         <v>10</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>26000</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="2" t="n">
         <v>11700</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>35780749</v>
       </c>
       <c r="B27" t="s">
@@ -1318,15 +1299,15 @@
       <c r="E27" t="s">
         <v>10</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>11200</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="2" t="n">
         <v>5040</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>35780749</v>
       </c>
       <c r="B28" t="s">
@@ -1341,15 +1322,15 @@
       <c r="E28" t="s">
         <v>10</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>60000</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="2" t="n">
         <v>27000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" t="n">
         <v>35767734</v>
       </c>
       <c r="B29" t="s">
@@ -1364,15 +1345,15 @@
       <c r="E29" t="s">
         <v>10</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>32000</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="2" t="n">
         <v>14400</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>35762831</v>
       </c>
       <c r="B30" t="s">
@@ -1387,15 +1368,15 @@
       <c r="E30" t="s">
         <v>10</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>6000</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="2" t="n">
         <v>2930.4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" t="n">
         <v>35762831</v>
       </c>
       <c r="B31" t="s">
@@ -1410,15 +1391,15 @@
       <c r="E31" t="s">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>29000</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="2" t="n">
         <v>14163.6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" t="n">
         <v>35762831</v>
       </c>
       <c r="B32" t="s">
@@ -1433,15 +1414,15 @@
       <c r="E32" t="s">
         <v>10</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>20000</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="2" t="n">
         <v>9768</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" t="n">
         <v>35762831</v>
       </c>
       <c r="B33" t="s">
@@ -1456,15 +1437,15 @@
       <c r="E33" t="s">
         <v>10</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>15000</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="2" t="n">
         <v>7326</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" t="n">
         <v>35762831</v>
       </c>
       <c r="B34" t="s">
@@ -1479,15 +1460,15 @@
       <c r="E34" t="s">
         <v>10</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>35000</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="2" t="n">
         <v>17094</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" t="n">
         <v>35733985</v>
       </c>
       <c r="B35" t="s">
@@ -1502,15 +1483,15 @@
       <c r="E35" t="s">
         <v>10</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>13000</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="2" t="n">
         <v>5850</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" t="n">
         <v>35733985</v>
       </c>
       <c r="B36" t="s">
@@ -1525,15 +1506,15 @@
       <c r="E36" t="s">
         <v>10</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>199000</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="2" t="n">
         <v>89550</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" t="n">
         <v>35658748</v>
       </c>
       <c r="B37" t="s">
@@ -1548,15 +1529,15 @@
       <c r="E37" t="s">
         <v>10</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>75000</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="2" t="n">
         <v>33750</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" t="n">
         <v>35658748</v>
       </c>
       <c r="B38" t="s">
@@ -1571,15 +1552,15 @@
       <c r="E38" t="s">
         <v>10</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>0</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" t="n">
         <v>35651032</v>
       </c>
       <c r="B39" t="s">
@@ -1594,15 +1575,15 @@
       <c r="E39" t="s">
         <v>10</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>32000</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="2" t="n">
         <v>14400</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" t="n">
         <v>35652036</v>
       </c>
       <c r="B40" t="s">
@@ -1617,15 +1598,15 @@
       <c r="E40" t="s">
         <v>10</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>18000</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="2" t="n">
         <v>8100</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" t="n">
         <v>35642190</v>
       </c>
       <c r="B41" t="s">
@@ -1640,15 +1621,15 @@
       <c r="E41" t="s">
         <v>10</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>60000</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="2" t="n">
         <v>27000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" t="n">
         <v>35637360</v>
       </c>
       <c r="B42" t="s">
@@ -1663,15 +1644,15 @@
       <c r="E42" t="s">
         <v>10</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>0</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" t="n">
         <v>35637360</v>
       </c>
       <c r="B43" t="s">
@@ -1686,15 +1667,15 @@
       <c r="E43" t="s">
         <v>10</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>67000</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="2" t="n">
         <v>30150</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" t="n">
         <v>35583063</v>
       </c>
       <c r="B44" t="s">
@@ -1709,15 +1690,15 @@
       <c r="E44" t="s">
         <v>10</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>20000</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="2" t="n">
         <v>9000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+    <row r="45">
+      <c r="A45" s="4" t="n">
         <v>35582316</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1732,15 +1713,15 @@
       <c r="E45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="4" t="n">
         <v>24000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="3" t="n">
         <v>-6240</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+    <row r="46">
+      <c r="A46" s="4" t="n">
         <v>35568397</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -1755,15 +1736,15 @@
       <c r="E46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="4" t="n">
         <v>28000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="3" t="n">
         <v>-7280</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" t="n">
         <v>35542344</v>
       </c>
       <c r="B47" t="s">
@@ -1778,15 +1759,15 @@
       <c r="E47" t="s">
         <v>10</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>26000</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="2" t="n">
         <v>11700</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" t="n">
         <v>35542344</v>
       </c>
       <c r="B48" t="s">
@@ -1801,15 +1782,15 @@
       <c r="E48" t="s">
         <v>10</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>38000</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="2" t="n">
         <v>17100</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49">
+      <c r="A49" t="n">
         <v>35542344</v>
       </c>
       <c r="B49" t="s">
@@ -1824,15 +1805,15 @@
       <c r="E49" t="s">
         <v>10</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>18000</v>
       </c>
-      <c r="G49" s="2">
-        <v>8791.2000000000007</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="G49" s="2" t="n">
+        <v>8791.2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
         <v>35542344</v>
       </c>
       <c r="B50" t="s">
@@ -1847,15 +1828,15 @@
       <c r="E50" t="s">
         <v>10</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>60000</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="2" t="n">
         <v>27000</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" t="n">
         <v>35532331</v>
       </c>
       <c r="B51" t="s">
@@ -1870,15 +1851,15 @@
       <c r="E51" t="s">
         <v>10</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>15000</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="2" t="n">
         <v>6750</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52">
+      <c r="A52" t="n">
         <v>35532331</v>
       </c>
       <c r="B52" t="s">
@@ -1893,15 +1874,15 @@
       <c r="E52" t="s">
         <v>10</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>60000</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="2" t="n">
         <v>27000</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53">
+      <c r="A53" t="n">
         <v>35525015</v>
       </c>
       <c r="B53" t="s">
@@ -1916,15 +1897,15 @@
       <c r="E53" t="s">
         <v>10</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>38000</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="2" t="n">
         <v>17100</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" t="n">
         <v>35525015</v>
       </c>
       <c r="B54" t="s">
@@ -1939,15 +1920,15 @@
       <c r="E54" t="s">
         <v>10</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>18000</v>
       </c>
-      <c r="G54" s="2">
-        <v>8791.2000000000007</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="G54" s="2" t="n">
+        <v>8791.2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
         <v>35525015</v>
       </c>
       <c r="B55" t="s">
@@ -1962,15 +1943,15 @@
       <c r="E55" t="s">
         <v>10</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>75000</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="2" t="n">
         <v>33750</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" t="n">
         <v>35494005</v>
       </c>
       <c r="B56" t="s">
@@ -1985,15 +1966,15 @@
       <c r="E56" t="s">
         <v>10</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>32000</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="2" t="n">
         <v>14400</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57">
+      <c r="A57" t="n">
         <v>35494005</v>
       </c>
       <c r="B57" t="s">
@@ -2008,15 +1989,15 @@
       <c r="E57" t="s">
         <v>10</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>15000</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="2" t="n">
         <v>7326</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" t="n">
         <v>35494005</v>
       </c>
       <c r="B58" t="s">
@@ -2031,15 +2012,15 @@
       <c r="E58" t="s">
         <v>10</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>18000</v>
       </c>
-      <c r="G58" s="2">
-        <v>8791.2000000000007</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="G58" s="2" t="n">
+        <v>8791.2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n">
         <v>35582184</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -2054,15 +2035,15 @@
       <c r="E59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="4" t="n">
         <v>199000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="n">
         <v>-51740</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60">
+      <c r="A60" t="n">
         <v>35445806</v>
       </c>
       <c r="B60" t="s">
@@ -2077,15 +2058,15 @@
       <c r="E60" t="s">
         <v>10</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>32000</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="2" t="n">
         <v>14400</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+    <row r="61">
+      <c r="A61" s="4" t="n">
         <v>35442726</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -2100,15 +2081,15 @@
       <c r="E61" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="4" t="n">
         <v>28000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="3" t="n">
         <v>-7280</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62">
+      <c r="A62" t="n">
         <v>35428108</v>
       </c>
       <c r="B62" t="s">
@@ -2123,15 +2104,15 @@
       <c r="E62" t="s">
         <v>10</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>38000</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="2" t="n">
         <v>17100</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63">
+      <c r="A63" t="n">
         <v>35428108</v>
       </c>
       <c r="B63" t="s">
@@ -2146,15 +2127,15 @@
       <c r="E63" t="s">
         <v>10</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>32000</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="2" t="n">
         <v>14400</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+    <row r="64">
+      <c r="A64" s="4" t="n">
         <v>35623157</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -2169,14 +2150,14 @@
       <c r="E64" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="4" t="n">
         <v>30000</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="3" t="n">
         <v>-30000</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>95</v>
@@ -2188,14 +2169,14 @@
       <c r="E65" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="3" t="n">
         <v>-31646</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>97</v>
@@ -2207,14 +2188,14 @@
       <c r="E66" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="n">
         <v>-100000</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>99</v>
@@ -2226,14 +2207,14 @@
       <c r="E67" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="3" t="n">
         <v>-50000</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>99</v>
@@ -2245,14 +2226,14 @@
       <c r="E68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="3" t="n">
         <v>-50000</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>99</v>
@@ -2264,15 +2245,15 @@
       <c r="E69" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="3" t="n">
         <v>-7500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>